--- a/public/plugin/xls/Surat Keterangan Yatim.xlsx
+++ b/public/plugin/xls/Surat Keterangan Yatim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F4991E-9432-48D5-8148-179F982CB45A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835FA916-0801-4332-9EBA-3D3B6F2D1EBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -224,33 +224,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -633,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:I24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -651,75 +648,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="3"/>
@@ -728,16 +725,16 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
@@ -747,10 +744,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
@@ -760,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -773,10 +770,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
@@ -786,10 +783,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
@@ -814,10 +811,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
@@ -827,10 +824,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
@@ -840,22 +837,22 @@
         <v>7</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="22" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
@@ -864,10 +861,10 @@
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
@@ -876,10 +873,10 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
@@ -892,57 +889,57 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="7:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="7:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="38" spans="7:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
@@ -951,6 +948,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:I30"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
@@ -967,17 +975,6 @@
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B22:I22"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
